--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_22_43.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_22_43.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11864.13390206327</v>
+        <v>2360962.646510588</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11864.13390206327</v>
+        <v>2360962.646510588</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>28577.23775229579</v>
+        <v>1715795.715512949</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>28577.23775229579</v>
+        <v>1715795.715512949</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1037355048.909317</v>
+        <v>43384432.65423314</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10918.33762126512</v>
+        <v>1198589.460129136</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>19802.2643048875</v>
+        <v>2048378.269986432</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>28686.19098850987</v>
+        <v>2898167.07984373</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>38512.80375069522</v>
+        <v>3697172.639217858</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>48339.41651288053</v>
+        <v>4496178.198591987</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>57325.33405272911</v>
+        <v>5345847.607446895</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>66311.25159257768</v>
+        <v>6195517.016301802</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>75297.16913242626</v>
+        <v>7045186.425156709</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>84898.18293840316</v>
+        <v>7822443.326607195</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>94598.72926420337</v>
+        <v>8621756.751309074</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>104297.7285280551</v>
+        <v>9420762.310683202</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>113996.7277919068</v>
+        <v>10219767.87005734</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>123695.7270557585</v>
+        <v>11018773.42943147</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>133394.7263196101</v>
+        <v>11817778.98880561</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>143099.7214945997</v>
+        <v>12615728.18268961</v>
       </c>
     </row>
   </sheetData>
